--- a/data/martinez_table.xlsx
+++ b/data/martinez_table.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colinbarnes/handbook/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC47796-DAE0-4242-91D0-EDC379DA5942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24140" windowHeight="19180" tabRatio="500"/>
+    <workbookView xWindow="2920" yWindow="460" windowWidth="24140" windowHeight="16460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
-  <si>
-    <t>families</t>
-  </si>
-  <si>
-    <t>members</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>1991-1999</t>
   </si>
@@ -33,13 +33,34 @@
     <t>year</t>
   </si>
   <si>
-    <t xml:space="preserve">families </t>
+    <t>families_1</t>
+  </si>
+  <si>
+    <t>members_1</t>
+  </si>
+  <si>
+    <t>families_2</t>
+  </si>
+  <si>
+    <t>members_2</t>
+  </si>
+  <si>
+    <t>families_3</t>
+  </si>
+  <si>
+    <t>members_3</t>
+  </si>
+  <si>
+    <t>families_4</t>
+  </si>
+  <si>
+    <t>members_4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -109,6 +130,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -433,14 +462,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="4" width="22.33203125" customWidth="1"/>
@@ -449,36 +478,36 @@
     <col min="11" max="11" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1991</v>
       </c>
@@ -507,7 +536,7 @@
         <v>614888</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1992</v>
       </c>
@@ -536,7 +565,7 @@
         <v>629538</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1993</v>
       </c>
@@ -565,7 +594,7 @@
         <v>660106</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1994</v>
       </c>
@@ -594,7 +623,7 @@
         <v>699194</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1995</v>
       </c>
@@ -623,7 +652,7 @@
         <v>766939</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1996</v>
       </c>
@@ -652,7 +681,7 @@
         <v>855240</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1997</v>
       </c>
@@ -681,7 +710,7 @@
         <v>920284</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1998</v>
       </c>
@@ -710,7 +739,7 @@
         <v>990914</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1999</v>
       </c>
@@ -739,9 +768,9 @@
         <v>1107482</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>1250767</v>
